--- a/experiments/ExperimentsInfo.xlsx
+++ b/experiments/ExperimentsInfo.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">실험 이름</t>
   </si>
   <si>
-    <t xml:space="preserve">사용 config</t>
+    <t xml:space="preserve">사용 config(model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용 데이터셋</t>
   </si>
   <si>
     <t xml:space="preserve">세부사항</t>
@@ -37,10 +40,28 @@
     <t xml:space="preserve">test.yaml</t>
   </si>
   <si>
-    <t xml:space="preserve">experiment_test_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fpsa_1_1.yaml</t>
+    <t xml:space="preserve">experiment_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpsa_1_1.yaml (medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4875: 비버웍스 데이터셋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'../configs/Fpsa_1_1.yaml’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fpsa_1_2.yaml (medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequency only</t>
   </si>
 </sst>
 </file>
@@ -150,17 +171,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="53.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -173,21 +199,51 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <f aca="false">HYPERLINK(G3,"열기")</f>
+        <v>열기</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/ExperimentsInfo.xlsx
+++ b/experiments/ExperimentsInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinhy\Desktop\WorkSpace\Project\FPSA_Paper\FPSA_ws\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F61809-9287-4375-B70E-EDF1A4B27443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9D068-94FB-4B52-8420-CAA95B7CAFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,31 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>실험 이름</t>
-  </si>
-  <si>
-    <t>사용 config(model)</t>
-  </si>
-  <si>
-    <t>세부사항</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>experiment_1</t>
   </si>
   <si>
-    <t>phase only</t>
-  </si>
-  <si>
-    <t>Frequency only</t>
-  </si>
-  <si>
-    <t>훈련 데이터셋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트 데이터셋</t>
+    <t>config(model)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experiment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train/Validation Dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Dataset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train Parameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation Result Folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation Result CSV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train Result Folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result Folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Result CSV</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -440,59 +457,92 @@
     <col min="1" max="1" width="17.58203125" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="43.08203125" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.4140625" customWidth="1"/>
-    <col min="7" max="7" width="33.08203125" customWidth="1"/>
-    <col min="8" max="8" width="53.4140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.08203125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="18.4140625" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
+    <col min="10" max="10" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>HYPERLINK("../configs/fpsa_1_1.yaml","Fpsa_1_1.yaml (YOLOm)")</f>
         <v>Fpsa_1_1.yaml (YOLOm)</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>HYPERLINK("../Dataset/4875","4875: 비버웍스 데이터셋")</f>
-        <v>4875: 비버웍스 데이터셋</v>
+        <f>HYPERLINK("../experiments/experiment_1\train/args.yaml","Experiment 1 훈련 파라미터")</f>
+        <v>Experiment 1 훈련 파라미터</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>HYPERLINK("../Dataset/4875","4875: 비버웍스 데이터셋")</f>
         <v>4875: 비버웍스 데이터셋</v>
       </c>
+      <c r="E2" s="3" t="str">
+        <f>HYPERLINK("../Dataset/test_syj_951", "test_syj_951: 비버웍스 테스트 데이터셋")</f>
+        <v>test_syj_951: 비버웍스 테스트 데이터셋</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>HYPERLINK("../experiments/experiment_1\train", "train result")</f>
+        <v>train result</v>
+      </c>
+      <c r="G2" s="3" t="str">
+        <f>HYPERLINK("../experiments/experiment_1\val", "validation result")</f>
+        <v>validation result</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>HYPERLINK("../experiments/experiment_1\test", "test result")</f>
+        <v>test result</v>
+      </c>
+      <c r="I2" s="3" t="str">
+        <f>HYPERLINK("../experiments/experiment_1\result_csv/val_metrics_experiment_1.csv", "validation result csv")</f>
+        <v>validation result csv</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f>HYPERLINK("../experiments/experiment_1\result_csv/test_metrics_experiment_1_test_syj_951.csv", "test result csv")</f>
+        <v>test result csv</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
